--- a/medicine/Mort/Cimetière_de_la_Trinité_(Krasnoïarsk)/Cimetière_de_la_Trinité_(Krasnoïarsk).xlsx
+++ b/medicine/Mort/Cimetière_de_la_Trinité_(Krasnoïarsk)/Cimetière_de_la_Trinité_(Krasnoïarsk).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Trinit%C3%A9_(Krasno%C3%AFarsk)</t>
+          <t>Cimetière_de_la_Trinité_(Krasnoïarsk)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la Trinité (russe : Троицкое кладбище) est un cimetière situé à Krasnoïarsk en Russie. Certaines de ses tombes sont classées monument historique régional. C'est le cimetière le plus ancien de la ville encore conservé. Il date de 1846 et s'étend sur une surface de 16 hectares partagée en 11 sections. L'église de la Trinité, construite par Makovietski et Piotr Charov, se trouve sur son territoire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Trinit%C3%A9_(Krasno%C3%AFarsk)</t>
+          <t>Cimetière_de_la_Trinité_(Krasnoïarsk)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y avait déjà un cimetière en ville au XVIIIe siècle, mais qui s'avère trop petit à la fin de ce siècle. Au début du XIXe siècle, il est nécessaire de prévoir un plan d'ensemble pour la ville en pleine expansion. Le plan général de la ville de Krasnoïarsk est entièrement conçu dans les années 1820 par William Hastie et approuvé par l'empereur Nicolas Ier, le 2 novembre (ancien style) 1828. Une parcelle est prévue pour un nouveau cimetière près de la rivière Katcha avec une église de style néoclassique dédiée à la Trinité qui est construite en 1836, consacrée et agrandie en 1842. Les premières inhumations datent de 1843. Le cimetière s'agrandit peu à peu et dans le milieu des années 1850 est entouré d'un mur d'enceinte financé par le négociant Nicolas Inozemtsev. Dix ans plus tard, un autre négociant du nom de Sajine fait construire une chapelle de pierre dédiée aux apôtres Pierre et Paul. Le cimetière est agrandi au sud en 1914. Les autorités municipales décident dans les années 1970 de raser le cimetière ; mais reculent devant les protestations des administrés et des familles. Elles décident donc de ne plus entretenir le cimetière avec ses trente mille tombes.
 Une habitante de Krasnoïarsk, Olga Arjanikh, crée une association, après la chute de l'URSS, dénommée association historico-culturelle du musée-nécropole de la Trinité de Krasnoïarsk, à qui la municipalité donne un statut historico-mémoriel de 1996 à 2003.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Trinit%C3%A9_(Krasno%C3%AFarsk)</t>
+          <t>Cimetière_de_la_Trinité_(Krasnoïarsk)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Monuments historiques
-Tombe de Sergueï Guéorguievitch  Drijenko (1878-1946), architecte de l'Art nouveau (dit Modern Style en Russie)
-Tombes à caractère historique
-Tombe du général Fiodor Kirillovitch Drijenko (1858-1922), hydrographe et explorateur du Baïkal
+          <t>Monuments historiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tombe de Sergueï Guéorguievitch  Drijenko (1878-1946), architecte de l'Art nouveau (dit Modern Style en Russie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Trinité_(Krasnoïarsk)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Trinit%C3%A9_(Krasno%C3%AFarsk)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tombes à caractère historique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tombe du général Fiodor Kirillovitch Drijenko (1858-1922), hydrographe et explorateur du Baïkal
 Tombe d'Anatoly Ivanovitch Gladkov (1907-1928)
 Tombe de Dmitri Innokentievitch Karatanov (1874-1952), peintre
 Tombe de Nikolaï Stanislavovitch Oustinovitch (1911-1962), écrivain
@@ -564,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_de_la_Trinit%C3%A9_(Krasno%C3%AFarsk)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Trinité_(Krasnoïarsk)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Trinit%C3%A9_(Krasno%C3%AFarsk)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Quelques personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Parmi les trente mille tombes, on peut distinguer, outre celles précitées, celles-ci:
 Onésime Abalakov (1841-1891), père des fameux alpinistes Evgueni et Vitaly Abalakov, enterré avec son autre fils Mikhaïl (1880-1910)
